--- a/results/FrequencyTables/27974196_gLTR1.xlsx
+++ b/results/FrequencyTables/27974196_gLTR1.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.975903614457831</v>
+        <v>0.979323308270677</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0075187969924812</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0093984962406015</v>
       </c>
       <c r="E2">
-        <v>0.036144578313253</v>
+        <v>0.0507518796992481</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0056390977443609</v>
       </c>
       <c r="G2">
-        <v>0.0120481927710843</v>
+        <v>0.0093984962406015</v>
       </c>
       <c r="H2">
-        <v>0.975903614457831</v>
+        <v>0.973684210526316</v>
       </c>
       <c r="I2">
-        <v>0.0240963855421687</v>
+        <v>0.0244360902255639</v>
       </c>
       <c r="J2">
-        <v>0.975903614457831</v>
+        <v>0.951127819548872</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0120481927710843</v>
+        <v>0.0037593984962406</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.99812030075188</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.996240601503759</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.939759036144578</v>
+        <v>0.890977443609023</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="T2">
-        <v>0.036144578313253</v>
+        <v>0.0639097744360902</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.994360902255639</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.0056390977443609</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0018796992481203</v>
       </c>
       <c r="X2">
-        <v>0.0240963855421687</v>
+        <v>0.018796992481203</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0056390977443609</v>
       </c>
       <c r="C3">
-        <v>0.036144578313253</v>
+        <v>0.0244360902255639</v>
       </c>
       <c r="D3">
-        <v>0.0120481927710843</v>
+        <v>0.0037593984962406</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0056390977443609</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0037593984962406</v>
       </c>
       <c r="G3">
-        <v>0.975903614457831</v>
+        <v>0.977443609022556</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0093984962406015</v>
       </c>
       <c r="I3">
-        <v>0.036144578313253</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.0018796992481203</v>
       </c>
       <c r="L3">
-        <v>0.867469879518072</v>
+        <v>0.93609022556391</v>
       </c>
       <c r="M3">
-        <v>0.0120481927710843</v>
+        <v>0.0056390977443609</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.99812030075188</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0037593984962406</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.093984962406015</v>
       </c>
       <c r="S3">
-        <v>0.951807228915663</v>
+        <v>0.934210526315789</v>
       </c>
       <c r="T3">
-        <v>0.951807228915663</v>
+        <v>0.926691729323308</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0120481927710843</v>
+        <v>0.0037593984962406</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0240963855421687</v>
+        <v>0.0075187969924812</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,43 +613,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0037593984962406</v>
       </c>
       <c r="C4">
-        <v>0.0240963855421687</v>
+        <v>0.0075187969924812</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.963855421686747</v>
+        <v>0.941729323308271</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.988721804511278</v>
       </c>
       <c r="G4">
-        <v>0.0120481927710843</v>
+        <v>0.0112781954887218</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0056390977443609</v>
       </c>
       <c r="I4">
-        <v>0.927710843373494</v>
+        <v>0.949248120300752</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0093984962406015</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0319548872180451</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0018796992481203</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0018796992481203</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0481927710843374</v>
+        <v>0.0112781954887218</v>
       </c>
       <c r="S4">
-        <v>0.0120481927710843</v>
+        <v>0.0037593984962406</v>
       </c>
       <c r="T4">
-        <v>0.0120481927710843</v>
+        <v>0.0018796992481203</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.0056390977443609</v>
       </c>
       <c r="V4">
-        <v>0.987951807228916</v>
+        <v>0.984962406015038</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.996240601503759</v>
       </c>
       <c r="X4">
-        <v>0.951807228915663</v>
+        <v>0.969924812030075</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,46 +687,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0240963855421687</v>
+        <v>0.0112781954887218</v>
       </c>
       <c r="C5">
-        <v>0.939759036144578</v>
+        <v>0.960526315789474</v>
       </c>
       <c r="D5">
-        <v>0.987951807228916</v>
+        <v>0.986842105263158</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0018796992481203</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0018796992481203</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0018796992481203</v>
       </c>
       <c r="H5">
-        <v>0.0240963855421687</v>
+        <v>0.0112781954887218</v>
       </c>
       <c r="I5">
-        <v>0.0120481927710843</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="J5">
-        <v>0.0240963855421687</v>
+        <v>0.037593984962406</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.132530120481928</v>
+        <v>0.0601503759398496</v>
       </c>
       <c r="M5">
-        <v>0.975903614457831</v>
+        <v>0.990601503759398</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.0018796992481203</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -735,25 +735,25 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0120481927710843</v>
+        <v>0.0037593984962406</v>
       </c>
       <c r="S5">
-        <v>0.036144578313253</v>
+        <v>0.0075187969924812</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.0075187969924812</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.0056390977443609</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0018796992481203</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.0018796992481203</v>
       </c>
     </row>
   </sheetData>
